--- a/src/main/resources/excelTemplate/po.xlsx
+++ b/src/main/resources/excelTemplate/po.xlsx
@@ -109,19 +109,19 @@
     <t>库位</t>
   </si>
   <si>
-    <t>${itemNumber}</t>
+    <t>${item.itemNumber}</t>
   </si>
   <si>
-    <t>${itemDes}</t>
+    <t>${item.itemDes}</t>
   </si>
   <si>
-    <t>${quantity}</t>
+    <t>${item.quantity}</t>
   </si>
   <si>
-    <t>${uom}</t>
+    <t>${item.uom}</t>
   </si>
   <si>
-    <t>${location}</t>
+    <t>${item.location}</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
